--- a/data/metadata/Informe-05-050006-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050006-A-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>edad-grupos-quinquenales-2010</t>
   </si>
@@ -40,7 +40,7 @@
     <t>comarca-nombre</t>
   </si>
   <si>
-    <t>iaest-dimension:edad-grupos-quinquenales-2010</t>
+    <t>iaest-measure:edad-grupos-quinquenales-2010</t>
   </si>
   <si>
     <t>iaest-measure:mes-y-ano</t>
@@ -55,21 +55,18 @@
     <t>iaest-measure:afiliaciones-en-alta</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>iaest-measure:edad</t>
   </si>
   <si>
+    <t>medida</t>
+  </si>
+  <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>xsd:int</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
   </si>
   <si>
     <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-edad-grupos-quinquenales-2010.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -205,28 +196,28 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -234,36 +225,28 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050006-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050006-A-TC-TP.xlsx
@@ -11,69 +11,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
-  <si>
-    <t>edad-grupos-quinquenales-2010</t>
-  </si>
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>afiliaciones-en-alta</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>edad</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Afiliaciones en alta</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Edad (Grupos Quinquenales 2010)</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>iaest-measure:edad</t>
+  </si>
+  <si>
+    <t>iaest-measure:afiliaciones-en-alta</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>iaest-measure:edad-grupos-quinquenales-2010</t>
   </si>
   <si>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:afiliaciones-en-alta</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
-    <t>iaest-measure:edad</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
   </si>
 </sst>
 </file>
@@ -179,16 +182,16 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -199,25 +202,25 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -225,28 +228,28 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050006-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050006-A-TC-TP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t xml:space="preserve">Edad</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">Aragón</t>
   </si>
   <si>
+    <t xml:space="preserve">Edad (Grupos Quinquenales 2010)</t>
+  </si>
+  <si>
     <t xml:space="preserve">edad</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">aragon</t>
   </si>
   <si>
+    <t xml:space="preserve">Edad-grupos-quinquenales-2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">iaest-measure:edad</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t xml:space="preserve">sdmx-dimension:refPeriod</t>
   </si>
   <si>
+    <t xml:space="preserve">iaest-dimension:edad-grupos-quinquenales-2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">medida</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">mapping-sexo.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mapping-edad-grupos-quinquenales-2010.xlsx</t>
   </si>
 </sst>
 </file>
@@ -257,10 +269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,7 +280,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -302,155 +314,173 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2"/>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/data/metadata/Informe-05-050006-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050006-A-TC-TP.xlsx
@@ -272,7 +272,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,7 +385,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>26</v>
@@ -423,7 +423,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>33</v>
@@ -461,7 +461,7 @@
         <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>40</v>
